--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_5_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_5_sawtooth_05_.xlsx
@@ -587,63 +587,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1693405712268985</v>
+        <v>0.1552006185046721</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1693405712268985</v>
+        <v>0.1552006185046721</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.425629365634375</v>
+        <v>5.871779316131055</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.310644894766284, 13.161903626035034]</t>
+          <t>[-2.1834791932672877, 13.927037825529396]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.164670726241225</v>
+        <v>0.1490177465562741</v>
       </c>
       <c r="O2" t="n">
-        <v>0.164670726241225</v>
+        <v>0.1490177465562741</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.874263485024541</v>
+        <v>-1.308210754648002</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.780000834290776, 1.0314738642416934]</t>
+          <t>[-4.270553376951891, 1.6541318676558872]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2005128961877105</v>
+        <v>0.3784887557303631</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2005128961877105</v>
+        <v>0.3784887557303631</v>
       </c>
       <c r="T2" t="n">
-        <v>11.9148760635999</v>
+        <v>11.58861461336895</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.816635532435026, 16.01311659476477]</t>
+          <t>[7.147099090901431, 16.03013013583647]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.112150862629505e-07</v>
+        <v>3.916561263528351e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>5.112150862629505e-07</v>
+        <v>3.916561263528351e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>7.752772772772961</v>
+        <v>5.411331331331461</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.266626626626726</v>
+        <v>-6.842212212212377</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.77217217217265</v>
+        <v>17.6648748748753</v>
       </c>
     </row>
     <row r="3">
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6809609352337149</v>
+        <v>0.2677482520544663</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6809609352337149</v>
+        <v>0.2677482520544663</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3.083628189231495</v>
+        <v>4.922129452800982</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-6.37689444355616, 12.544150822019148]</t>
+          <t>[-2.9816498715460646, 12.82590877714803]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.5148516600399855</v>
+        <v>0.2162108008165877</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5148516600399855</v>
+        <v>0.2162108008165877</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.270473905956233</v>
+        <v>-1.74847398938531</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.408921822155045, 1.8679740102425795]</t>
+          <t>[-4.8680534812382374, 1.3711055024676169]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.4191788946220374</v>
+        <v>0.2649339031954132</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4191788946220374</v>
+        <v>0.2649339031954132</v>
       </c>
       <c r="T3" t="n">
-        <v>13.97915471839822</v>
+        <v>10.68822447633932</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[8.761116610114712, 19.197192826681736]</t>
+          <t>[6.316519089011899, 15.059929863666746]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.437591551718299e-06</v>
+        <v>1.183478876187749e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>2.437591551718299e-06</v>
+        <v>1.183478876187749e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>5.255235235235361</v>
+        <v>7.232452452452627</v>
       </c>
       <c r="Y3" t="n">
-        <v>-7.726756756756942</v>
+        <v>-5.671491491491624</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.23722722722766</v>
+        <v>20.13639639639688</v>
       </c>
     </row>
     <row r="4">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1366571791903254</v>
+        <v>0.146035813440209</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1366571791903254</v>
+        <v>0.146035813440209</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.491871274266762</v>
+        <v>6.51286838247119</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.070306543415544, 14.054049091949068]</t>
+          <t>[-2.025066744415499, 15.050803509357879]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.09065792761628133</v>
+        <v>0.1314451131066248</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09065792761628133</v>
+        <v>0.1314451131066248</v>
       </c>
       <c r="P4" t="n">
-        <v>-3.132158441416851</v>
+        <v>-2.64157940842385</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.691948187343314, -1.5723686954903866]</t>
+          <t>[-5.6731062533293155, 0.38994743648161556]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0002030802211205884</v>
+        <v>0.08606103539380139</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0002030802211205884</v>
+        <v>0.08606103539380139</v>
       </c>
       <c r="T4" t="n">
-        <v>11.28095185462625</v>
+        <v>13.26738160269225</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.902959823266157, 15.658943885986337]</t>
+          <t>[8.81163748673464, 17.723125718649854]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.877052290241934e-06</v>
+        <v>3.1526727872766e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>4.877052290241934e-06</v>
+        <v>3.1526727872766e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>12.95597597597629</v>
+        <v>10.92672672672699</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.504004004004162</v>
+        <v>-1.61299299299303</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.40794794794841</v>
+        <v>23.46644644644701</v>
       </c>
     </row>
     <row r="5">
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2816558896747441</v>
+        <v>0.6881719176464164</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2816558896747441</v>
+        <v>0.6881719176464164</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.861592250749801</v>
+        <v>2.604327285787293</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.9997479581658233, 12.722932459665426]</t>
+          <t>[-5.526832454232145, 10.73548702580673]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2193735293397336</v>
+        <v>0.5221400636936955</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2193735293397336</v>
+        <v>0.5221400636936955</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.767368904063081</v>
+        <v>-2.264210921506157</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.798895748968547, 0.2641579408423853]</t>
+          <t>[-5.383790413359084, 0.8553685703467702]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.07257911421031471</v>
+        <v>0.1507312905353813</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07257911421031471</v>
+        <v>0.1507312905353813</v>
       </c>
       <c r="T5" t="n">
-        <v>11.16422397618449</v>
+        <v>10.8212161469045</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.049133704543204, 15.279314247825779]</t>
+          <t>[6.614215288960523, 15.028217004848486]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.933872454840113e-06</v>
+        <v>5.029269644740708e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.933872454840113e-06</v>
+        <v>5.029269644740708e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>11.44704704704732</v>
+        <v>9.365765765765989</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.092672672672702</v>
+        <v>-3.538178178178262</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.98676676676734</v>
+        <v>22.26970970971024</v>
       </c>
     </row>
     <row r="6">
@@ -931,63 +931,63 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1504265155421778</v>
+        <v>0.5154690237693285</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1504265155421778</v>
+        <v>0.5154690237693285</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.034934374482511</v>
+        <v>3.536971533525528</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.6966847769416535, 13.766553525906675]</t>
+          <t>[-4.598311946893906, 11.67225501394496]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1229297715599902</v>
+        <v>0.3858596067100342</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1229297715599902</v>
+        <v>0.3858596067100342</v>
       </c>
       <c r="P6" t="n">
-        <v>2.823974177100735</v>
+        <v>2.874289975356427</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.5094474573388847, 5.138500896862585]</t>
+          <t>[-0.2515789912784623, 6.000158941991317]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.01791199231540697</v>
+        <v>0.07059262726495841</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01791199231540697</v>
+        <v>0.07059262726495841</v>
       </c>
       <c r="T6" t="n">
-        <v>12.30316813277208</v>
+        <v>10.98427494781265</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.02678350599036, 16.5795527595538]</t>
+          <t>[6.706621071864031, 15.261928823761277]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.29543598584803e-07</v>
+        <v>5.179779016595276e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>6.29543598584803e-07</v>
+        <v>5.179779016595276e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>14.30880880880915</v>
+        <v>14.10068068068102</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.734914914915027</v>
+        <v>1.170720720720748</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.88270270270328</v>
+        <v>27.03064064064129</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.32000000000036</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1050772618029351</v>
+        <v>0.1175585239406204</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1050772618029351</v>
+        <v>0.1175585239406204</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.598743070224213</v>
+        <v>6.164066470680401</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.5537203997371023, 14.751206540185528]</t>
+          <t>[-1.6928993056220527, 14.021032246982855]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1100294728878981</v>
+        <v>0.1210802438215712</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1100294728878981</v>
+        <v>0.1210802438215712</v>
       </c>
       <c r="P7" t="n">
-        <v>1.867974010242579</v>
+        <v>2.232763547596349</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.08176317216550011, 3.654184848319659]</t>
+          <t>[-0.8993948938205021, 5.3649219890132]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0407878836824267</v>
+        <v>0.1579869130993461</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0407878836824267</v>
+        <v>0.1579869130993461</v>
       </c>
       <c r="T7" t="n">
-        <v>12.0669181984214</v>
+        <v>11.9956758034085</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.728842638274607, 16.404993758568196]</t>
+          <t>[7.788868967831366, 16.20248263898563]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.210277664087656e-06</v>
+        <v>7.499853320602767e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>1.210277664087656e-06</v>
+        <v>7.499853320602767e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>17.08972972972999</v>
+        <v>16.20636636636669</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.17593593593609</v>
+        <v>3.67411411411419</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.00352352352388</v>
+        <v>28.73861861861918</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.32000000000036</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2084822388111979</v>
+        <v>0.05141629019504035</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2084822388111979</v>
+        <v>0.05141629019504035</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.71127050750567</v>
+        <v>7.437821621449475</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.7457459843917356, 11.168286999403076]</t>
+          <t>[-0.8076751643271756, 15.683318407226125]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1486376224279453</v>
+        <v>0.07590912531421257</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1486376224279453</v>
+        <v>0.07590912531421257</v>
       </c>
       <c r="P8" t="n">
-        <v>1.389973926813503</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.5283423720166551, 4.308290225643661]</t>
+          <t>[0.42139481039142357, 3.792553293522814]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.3425319970624674</v>
+        <v>0.01544312383558477</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3425319970624674</v>
+        <v>0.01544312383558477</v>
       </c>
       <c r="T8" t="n">
-        <v>12.03838535735726</v>
+        <v>12.44923057894584</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.29617372225735, 15.78059699245717]</t>
+          <t>[8.162989280798069, 16.735471877093605]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.053807299899461e-08</v>
+        <v>5.213311780050134e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>6.053807299899461e-08</v>
+        <v>5.213311780050134e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>18.93989989990018</v>
+        <v>16.70966966966999</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.644124124124238</v>
+        <v>9.965405405405594</v>
       </c>
       <c r="Z8" t="n">
-        <v>30.23567567567612</v>
+        <v>23.45393393393439</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.32000000000036</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1747481652972249</v>
+        <v>0.2236871203655357</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1747481652972249</v>
+        <v>0.2236871203655357</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.992571865002212</v>
+        <v>5.11269633362933</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.647642258953905, 14.632785988958329]</t>
+          <t>[-2.7544249618011616, 12.979817629059822]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1692898657036668</v>
+        <v>0.1972037010357215</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1692898657036668</v>
+        <v>0.1972037010357215</v>
       </c>
       <c r="P9" t="n">
-        <v>2.257921446724196</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.8805264694746162, 5.396369362923008]</t>
+          <t>[-1.1950002085726936, 4.8806324308021605]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1542640507666093</v>
+        <v>0.2281429672665896</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1542640507666093</v>
+        <v>0.2281429672665896</v>
       </c>
       <c r="T9" t="n">
-        <v>12.47666665287306</v>
+        <v>13.77425152180726</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.983955094419695, 16.969378211326433]</t>
+          <t>[9.535629551790255, 18.012873491824262]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.248436056311419e-06</v>
+        <v>4.828395505640515e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.248436056311419e-06</v>
+        <v>4.828395505640515e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>15.58038038038061</v>
+        <v>17.76660660660695</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.432552552552604</v>
+        <v>5.611831831831942</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.72820820820862</v>
+        <v>29.92138138138196</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.32000000000036</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0206047943329819</v>
+        <v>0.04013937210529694</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0206047943329819</v>
+        <v>0.04013937210529694</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.631817487182026</v>
+        <v>6.850003372350285</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[1.0442939597279306, 14.219341014636122]</t>
+          <t>[0.12758910555652392, 13.572417639144046]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.02415521640557028</v>
+        <v>0.04598137294066973</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02415521640557028</v>
+        <v>0.04598137294066973</v>
       </c>
       <c r="P10" t="n">
-        <v>1.855395060678656</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.5975001042863477, 3.113290017070965]</t>
+          <t>[0.40881586082750054, 3.226500563146274]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.004752604953101702</v>
+        <v>0.01261195222688216</v>
       </c>
       <c r="S10" t="n">
-        <v>0.004752604953101702</v>
+        <v>0.01261195222688216</v>
       </c>
       <c r="T10" t="n">
-        <v>12.14832672331908</v>
+        <v>9.924782414117061</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.39508050010354, 15.901572946534628]</t>
+          <t>[6.1214125479412065, 13.728152280292916]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.279566472893293e-08</v>
+        <v>3.908266158036966e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>5.279566472893293e-08</v>
+        <v>3.908266158036966e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>17.13841841841867</v>
+        <v>17.86726726726761</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.26954954954974</v>
+        <v>12.23027027027051</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.00728728728761</v>
+        <v>23.50426426426472</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.32000000000036</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1793122711566735</v>
+        <v>0.1136395342004295</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1793122711566735</v>
+        <v>0.1136395342004295</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.406304374475999</v>
+        <v>5.826031370741935</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.933231169291238, 12.745839918243236]</t>
+          <t>[-1.2397051759117712, 12.891767917395642]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1448887404941124</v>
+        <v>0.1037222134771132</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1448887404941124</v>
+        <v>0.1037222134771132</v>
       </c>
       <c r="P11" t="n">
-        <v>1.830237161550811</v>
+        <v>1.352237078121732</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.1761317842268078, 4.83660610732843]</t>
+          <t>[-0.3585000625718102, 3.062974218815274]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.2265166477935117</v>
+        <v>0.1183791168203243</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2265166477935117</v>
+        <v>0.1183791168203243</v>
       </c>
       <c r="T11" t="n">
-        <v>10.55113480560748</v>
+        <v>10.98734878311639</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.453782171393515, 14.648487439821443]</t>
+          <t>[7.038262193530141, 14.936435372702643]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.931096037497085e-06</v>
+        <v>1.205144977811656e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>4.931096037497085e-06</v>
+        <v>1.205144977811656e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>17.23579579579605</v>
+        <v>19.72948948948988</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.599199199199283</v>
+        <v>12.88456456456482</v>
       </c>
       <c r="Z11" t="n">
-        <v>28.87239239239282</v>
+        <v>26.57441441441494</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.32000000000036</v>
+        <v>25.14000000000049</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07432603361490286</v>
+        <v>0.0710158167728111</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07432603361490286</v>
+        <v>0.0710158167728111</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.813280122676414</v>
+        <v>7.084615070840515</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.43655400051711446, 14.063114245869942]</t>
+          <t>[-1.0919869936309468, 15.261217135311977]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.06482390143232641</v>
+        <v>0.08779014667207607</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06482390143232641</v>
+        <v>0.08779014667207607</v>
       </c>
       <c r="P12" t="n">
-        <v>1.465447624197041</v>
+        <v>1.100658086843271</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.018868424345884982, 2.912026824048197]</t>
+          <t>[-0.5975001042863468, 2.7988162779728896]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.04720694937722469</v>
+        <v>0.1983791969334658</v>
       </c>
       <c r="S12" t="n">
-        <v>0.04720694937722469</v>
+        <v>0.1983791969334658</v>
       </c>
       <c r="T12" t="n">
-        <v>10.51897323202803</v>
+        <v>13.04400430309345</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.362886046347888, 14.675060417708167]</t>
+          <t>[8.761721908268722, 17.32628669791818]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.640957813219828e-06</v>
+        <v>1.967440603767301e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>6.640957813219828e-06</v>
+        <v>1.967440603767301e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>18.64776776776804</v>
+        <v>20.7360960960965</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.04856856856876</v>
+        <v>13.94150150150177</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.24696696696733</v>
+        <v>27.53069069069123</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_5_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_5_sawtooth_05_.xlsx
@@ -587,63 +587,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1552006185046721</v>
+        <v>0.2740319403040853</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1552006185046721</v>
+        <v>0.2740319403040853</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.871779316131055</v>
+        <v>4.840328003682876</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.1834791932672877, 13.927037825529396]</t>
+          <t>[-3.1709879049634075, 12.851643912329159]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1490177465562741</v>
+        <v>0.2299884138306787</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1490177465562741</v>
+        <v>0.2299884138306787</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.308210754648002</v>
+        <v>-1.761052938949233</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.270553376951891, 1.6541318676558872]</t>
+          <t>[-4.767421884726852, 1.2453160068283857]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.3784887557303631</v>
+        <v>0.2442756162503075</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3784887557303631</v>
+        <v>0.2442756162503075</v>
       </c>
       <c r="T2" t="n">
-        <v>11.58861461336895</v>
+        <v>10.18887543644948</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.147099090901431, 16.03013013583647]</t>
+          <t>[5.850635020120135, 14.527115852778829]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.916561263528351e-06</v>
+        <v>2.244732933442961e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.916561263528351e-06</v>
+        <v>2.244732933442961e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>5.411331331331461</v>
+        <v>7.284484484484658</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.842212212212377</v>
+        <v>-5.151171171171294</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.6648748748753</v>
+        <v>19.72014014014061</v>
       </c>
     </row>
     <row r="3">
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2677482520544663</v>
+        <v>0.1240939374181488</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2677482520544663</v>
+        <v>0.1240939374181488</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.922129452800982</v>
+        <v>5.731900137469534</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.9816498715460646, 12.82590877714803]</t>
+          <t>[-1.2186936099564498, 12.682493884895518]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2162108008165877</v>
+        <v>0.1036748438143147</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2162108008165877</v>
+        <v>0.1036748438143147</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.74847398938531</v>
+        <v>-1.786210838077079</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.8680534812382374, 1.3711055024676169]</t>
+          <t>[-3.5346848274623897, -0.037736848691769076]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2649339031954132</v>
+        <v>0.04545273892401247</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2649339031954132</v>
+        <v>0.04545273892401247</v>
       </c>
       <c r="T3" t="n">
-        <v>10.68822447633932</v>
+        <v>11.45446088586609</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.316519089011899, 15.059929863666746]</t>
+          <t>[7.452097053479697, 15.456824718252491]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.183478876187749e-05</v>
+        <v>6.981856943699682e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>1.183478876187749e-05</v>
+        <v>6.981856943699682e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>7.232452452452627</v>
+        <v>7.388548548548723</v>
       </c>
       <c r="Y3" t="n">
-        <v>-5.671491491491624</v>
+        <v>0.1560960960960971</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.13639639639688</v>
+        <v>14.62100100100135</v>
       </c>
     </row>
     <row r="4">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.146035813440209</v>
+        <v>0.8442406449463782</v>
       </c>
       <c r="I4" t="n">
-        <v>0.146035813440209</v>
+        <v>0.8442406449463782</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.51286838247119</v>
+        <v>1.904272259541969</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.025066744415499, 15.050803509357879]</t>
+          <t>[-6.873014785342848, 10.681559304426786]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1314451131066248</v>
+        <v>0.6642237054924438</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1314451131066248</v>
+        <v>0.6642237054924438</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.64157940842385</v>
+        <v>-2.226474072814388</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.6731062533293155, 0.38994743648161556]</t>
+          <t>[-5.358632514231239, 0.9056843686024632]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.08606103539380139</v>
+        <v>0.159135619687496</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08606103539380139</v>
+        <v>0.159135619687496</v>
       </c>
       <c r="T4" t="n">
-        <v>13.26738160269225</v>
+        <v>13.8507524413398</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.81163748673464, 17.723125718649854]</t>
+          <t>[9.253469386698939, 18.448035495980662]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.1526727872766e-07</v>
+        <v>2.473648732514988e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>3.1526727872766e-07</v>
+        <v>2.473648732514988e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>10.92672672672699</v>
+        <v>9.209669669669889</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.61299299299303</v>
+        <v>-3.746306306306399</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.46644644644701</v>
+        <v>22.16564564564618</v>
       </c>
     </row>
     <row r="5">
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6881719176464164</v>
+        <v>0.3500707229891827</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6881719176464164</v>
+        <v>0.3500707229891827</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>2.604327285787293</v>
+        <v>4.998954770799792</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-5.526832454232145, 10.73548702580673]</t>
+          <t>[-4.038868983366888, 14.036778524966472]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.5221400636936955</v>
+        <v>0.2711810794249481</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5221400636936955</v>
+        <v>0.2711810794249481</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.264210921506157</v>
+        <v>-2.666737307551696</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.383790413359084, 0.8553685703467702]</t>
+          <t>[-5.792606274186586, 0.45913165908319353]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1507312905353813</v>
+        <v>0.09262179734550413</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1507312905353813</v>
+        <v>0.09262179734550413</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8212161469045</v>
+        <v>10.88733165297843</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.614215288960523, 15.028217004848486]</t>
+          <t>[6.215574408181182, 15.55908889777568]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.029269644740708e-06</v>
+        <v>2.531066247191127e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>5.029269644740708e-06</v>
+        <v>2.531066247191127e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>9.365765765765989</v>
+        <v>11.03079079079106</v>
       </c>
       <c r="Y5" t="n">
-        <v>-3.538178178178262</v>
+        <v>-1.899169169169216</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.26970970971024</v>
+        <v>23.96075075075133</v>
       </c>
     </row>
     <row r="6">
@@ -931,63 +931,63 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5154690237693285</v>
+        <v>0.4787490227715581</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5154690237693285</v>
+        <v>0.4787490227715581</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3.536971533525528</v>
+        <v>4.046456756219643</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.598311946893906, 11.67225501394496]</t>
+          <t>[-4.68425935467677, 12.777172867116057]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3858596067100342</v>
+        <v>0.3555522306975418</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3858596067100342</v>
+        <v>0.3555522306975418</v>
       </c>
       <c r="P6" t="n">
-        <v>2.874289975356427</v>
+        <v>2.88686892492035</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.2515789912784623, 6.000158941991317]</t>
+          <t>[-0.2327105669325773, 6.006448416773278]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.07059262726495841</v>
+        <v>0.06887399606994138</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07059262726495841</v>
+        <v>0.06887399606994138</v>
       </c>
       <c r="T6" t="n">
-        <v>10.98427494781265</v>
+        <v>12.26011499866033</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.706621071864031, 15.261928823761277]</t>
+          <t>[7.626530460931193, 16.89369953638947]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.179779016595276e-06</v>
+        <v>3.05220476048973e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>5.179779016595276e-06</v>
+        <v>3.05220476048973e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>14.10068068068102</v>
+        <v>14.04864864864899</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.170720720720748</v>
+        <v>1.144704704704731</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.03064064064129</v>
+        <v>26.95259259259324</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.14000000000049</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1175585239406204</v>
+        <v>0.7202478898514403</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1175585239406204</v>
+        <v>0.7202478898514403</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.164066470680401</v>
+        <v>2.582736619260844</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.6928993056220527, 14.021032246982855]</t>
+          <t>[-5.68529652033258, 10.850769758854268]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1210802438215712</v>
+        <v>0.5324268193160893</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1210802438215712</v>
+        <v>0.5324268193160893</v>
       </c>
       <c r="P7" t="n">
-        <v>2.232763547596349</v>
+        <v>1.968605606753964</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.8993948938205021, 5.3649219890132]</t>
+          <t>[-1.1698423094448476, 5.107053522952775]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1579869130993461</v>
+        <v>0.2129678462295745</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1579869130993461</v>
+        <v>0.2129678462295745</v>
       </c>
       <c r="T7" t="n">
-        <v>11.9956758034085</v>
+        <v>12.22911309464371</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.788868967831366, 16.20248263898563]</t>
+          <t>[7.624682885530806, 16.833543303756606]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>7.499853320602767e-07</v>
+        <v>2.851381677437814e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>7.499853320602767e-07</v>
+        <v>2.851381677437814e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>16.20636636636669</v>
+        <v>17.11223223223255</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.67411411411419</v>
+        <v>4.664704704704798</v>
       </c>
       <c r="Z7" t="n">
-        <v>28.73861861861918</v>
+        <v>29.5597597597603</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.14000000000049</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05141629019504035</v>
+        <v>0.2379955359248938</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05141629019504035</v>
+        <v>0.2379955359248938</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>7.437821621449475</v>
+        <v>5.29711619340622</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.8076751643271756, 15.683318407226125]</t>
+          <t>[-3.149682663336023, 13.743915050148463]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.07590912531421257</v>
+        <v>0.2130677153167988</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07590912531421257</v>
+        <v>0.2130677153167988</v>
       </c>
       <c r="P8" t="n">
-        <v>2.106974051957119</v>
+        <v>2.144710900648888</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.42139481039142357, 3.792553293522814]</t>
+          <t>[-0.9560001668581553, 5.245421968155931]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.01544312383558477</v>
+        <v>0.1704269213533494</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01544312383558477</v>
+        <v>0.1704269213533494</v>
       </c>
       <c r="T8" t="n">
-        <v>12.44923057894584</v>
+        <v>12.62939716172764</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.162989280798069, 16.735471877093605]</t>
+          <t>[8.186493733040745, 17.07230059041454]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.213311780050134e-07</v>
+        <v>7.971442559373543e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>5.213311780050134e-07</v>
+        <v>7.971442559373543e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>16.70966966966999</v>
+        <v>16.41377377377407</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.965405405405594</v>
+        <v>4.115915915915993</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.45393393393439</v>
+        <v>28.71163163163216</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.14000000000049</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2236871203655357</v>
+        <v>0.3978818472067015</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2236871203655357</v>
+        <v>0.3978818472067015</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.11269633362933</v>
+        <v>3.976700691242132</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.7544249618011616, 12.979817629059822]</t>
+          <t>[-3.7736287339126484, 11.727030116396913]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1972037010357215</v>
+        <v>0.3069210720422679</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1972037010357215</v>
+        <v>0.3069210720422679</v>
       </c>
       <c r="P9" t="n">
-        <v>1.842816111114733</v>
+        <v>2.509500438002657</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.1950002085726936, 4.8806324308021605]</t>
+          <t>[-0.6289474781961548, 5.6479483542014695]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.2281429672665896</v>
+        <v>0.1142874199243069</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2281429672665896</v>
+        <v>0.1142874199243069</v>
       </c>
       <c r="T9" t="n">
-        <v>13.77425152180726</v>
+        <v>12.20705960508595</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.535629551790255, 18.012873491824262]</t>
+          <t>[8.07302389783426, 16.341095312337636]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.828395505640515e-08</v>
+        <v>3.738672866848702e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>4.828395505640515e-08</v>
+        <v>3.738672866848702e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>17.76660660660695</v>
+        <v>14.96696696696724</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.611831831831942</v>
+        <v>2.519439439439488</v>
       </c>
       <c r="Z9" t="n">
-        <v>29.92138138138196</v>
+        <v>27.414494494495</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.14000000000049</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04013937210529694</v>
+        <v>0.06501972740465689</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04013937210529694</v>
+        <v>0.06501972740465689</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.850003372350285</v>
+        <v>5.942586844690029</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.12758910555652392, 13.572417639144046]</t>
+          <t>[-0.7569774030378937, 12.642151092417953]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.04598137294066973</v>
+        <v>0.08075125390451476</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04598137294066973</v>
+        <v>0.08075125390451476</v>
       </c>
       <c r="P10" t="n">
-        <v>1.817658211986887</v>
+        <v>2.106974051957118</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.40881586082750054, 3.226500563146274]</t>
+          <t>[0.10692107129334527, 4.10702703262089]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.01261195222688216</v>
+        <v>0.0393965483414187</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01261195222688216</v>
+        <v>0.0393965483414187</v>
       </c>
       <c r="T10" t="n">
-        <v>9.924782414117061</v>
+        <v>10.81637403903287</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.1214125479412065, 13.728152280292916]</t>
+          <t>[7.251594667285845, 14.381153410779893]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.908266158036966e-06</v>
+        <v>2.134220598026815e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>3.908266158036966e-06</v>
+        <v>2.134220598026815e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>17.86726726726761</v>
+        <v>16.56344344344375</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.23027027027051</v>
+        <v>8.63095095095111</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.50426426426472</v>
+        <v>24.49593593593639</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.14000000000049</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1136395342004295</v>
+        <v>0.2105579310645209</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1136395342004295</v>
+        <v>0.2105579310645209</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.826031370741935</v>
+        <v>4.513158970892742</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.2397051759117712, 12.891767917395642]</t>
+          <t>[-2.164842912565838, 11.191160854351322]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1037222134771132</v>
+        <v>0.1802341231480709</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1037222134771132</v>
+        <v>0.1802341231480709</v>
       </c>
       <c r="P11" t="n">
-        <v>1.352237078121732</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.3585000625718102, 3.062974218815274]</t>
+          <t>[-1.3333686537758478, 4.9435271786217765]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1183791168203243</v>
+        <v>0.2528068230603204</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1183791168203243</v>
+        <v>0.2528068230603204</v>
       </c>
       <c r="T11" t="n">
-        <v>10.98734878311639</v>
+        <v>10.11460951544982</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.038262193530141, 14.936435372702643]</t>
+          <t>[6.466098695313811, 13.763120335585825]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.205144977811656e-06</v>
+        <v>1.290387016794625e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.205144977811656e-06</v>
+        <v>1.290387016794625e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>19.72948948948988</v>
+        <v>17.76080080080112</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.88456456456482</v>
+        <v>5.313273273273371</v>
       </c>
       <c r="Z11" t="n">
-        <v>26.57441441441494</v>
+        <v>30.20832832832888</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.14000000000049</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0710158167728111</v>
+        <v>0.3510763557604761</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0710158167728111</v>
+        <v>0.3510763557604761</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>7.084615070840515</v>
+        <v>4.32319835045625</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.0919869936309468, 15.261217135311977]</t>
+          <t>[-3.5822094737161088, 12.22860617462861]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.08779014667207607</v>
+        <v>0.2765598649704093</v>
       </c>
       <c r="O12" t="n">
-        <v>0.08779014667207607</v>
+        <v>0.2765598649704093</v>
       </c>
       <c r="P12" t="n">
-        <v>1.100658086843271</v>
+        <v>1.289342330302117</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.5975001042863468, 2.7988162779728896]</t>
+          <t>[-1.8491055858966954, 4.427790246500929]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1983791969334658</v>
+        <v>0.4123557834131941</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1983791969334658</v>
+        <v>0.4123557834131941</v>
       </c>
       <c r="T12" t="n">
-        <v>13.04400430309345</v>
+        <v>9.156365390611306</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.761721908268722, 17.32628669791818]</t>
+          <t>[4.900820412007164, 13.411910369215448]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.967440603767301e-07</v>
+        <v>8.134646293922465e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>1.967440603767301e-07</v>
+        <v>8.134646293922465e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>20.7360960960965</v>
+        <v>19.80628628628665</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.94150150150177</v>
+        <v>7.358758758758896</v>
       </c>
       <c r="Z12" t="n">
-        <v>27.53069069069123</v>
+        <v>32.2538138138144</v>
       </c>
     </row>
   </sheetData>
